--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_04_beg.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_04_beg.xlsx
@@ -1324,7 +1324,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="대머리 마틴"]  어쩐 일이라니….. 이거 때문이지.
+    <t xml:space="preserve">[name="대머리 마틴"]  어쩐 일이라니…… 이거 때문이지.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_04_beg.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_04_beg.xlsx
@@ -816,7 +816,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  Forego the formality. I’m no critic of your... vernacular, “Greatmouth Mob.” Or, perhaps, I should be calling you by your real name?
+    <t xml:space="preserve">[name="Spokesman Czarny"]  Forego the formality. I’m no critic of your... vernacular, 'Greatmouth Mob.' Or, perhaps, I should be calling you by your real name?
 </t>
   </si>
   <si>
@@ -852,7 +852,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  For example... Mr. Mob, take your hometown, our “City of Saplings and Artisans,” Ognisko.
+    <t xml:space="preserve">[name="Spokesman Czarny"]  For example... Mr. Mob, take your hometown, our 'City of Saplings and Artisans,' Ognisko.
 </t>
   </si>
   <si>
@@ -980,7 +980,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  (Is that why the “gardens” here are just “fields” now...)
+    <t xml:space="preserve">[name="Maria"]  (Is that why the 'gardens' here are just 'fields' now...)
 </t>
   </si>
   <si>
@@ -1008,7 +1008,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  When I think of “Nearl,” the name my grandpa and my parents protected all their lives, I can’t imagine it was all just for the numbers and lines of the stock exchange.
+    <t xml:space="preserve">[name="Maria"]  When I think of 'Nearl,' the name my grandpa and my parents protected all their lives, I can’t imagine it was all just for the numbers and lines of the stock exchange.
 </t>
   </si>
   <si>
@@ -1068,11 +1068,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  You wanna watch the heroes fall! You wanna watch the great stars crash to the ground! Thaaaat’s right! This season’s melee matches have a new rule in the mix, the “Points Off” clause! You hear that, knights? Risk and reward in one!   
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Where’s the spice when your points never drop?! In this match, we’re following the “Predator System!” Let’s keep it simple, sister: when someone goes up one, someone else is goin’ down one!  
+    <t xml:space="preserve">[name="Greatmouth Mob"]  You wanna watch the heroes fall! You wanna watch the great stars crash to the ground! Thaaaat’s right! This season’s melee matches have a new rule in the mix, the 'Points Off' clause! You hear that, knights? Risk and reward in one!   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Where’s the spice when your points never drop?! In this match, we’re following the 'Predator System!' Let’s keep it simple, sister: when someone goes up one, someone else is goin’ down one!  
 </t>
   </si>
   <si>
@@ -1104,7 +1104,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Knight"]  Nah... “Points Off?” They ever have a “Points Off” in the melees before? 
+    <t xml:space="preserve">[name="Old Knight"]  Nah... 'Points Off?' They ever have a 'Points Off' in the melees before? 
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_04_beg.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_04_beg.xlsx
@@ -788,27 +788,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">3:49 PM \ Clear \ Kazimierz Kawalerielki Alliance, a private open-air loft
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="??? "]  ...I see you’ve arrived, Mr. Mob.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Wait. It’s you. I saw you back at the arena and you said—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="??? "]  No. That’s neither here nor there. Now, don’t be so wound up. Take a seat.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="??? "]  Allow me to introduce myself again—please, call me Czarny. I’m one of the rotational managers, currently responsible for a division of the Knights Association.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  I’m also an executive of the Mieszko Group Major &amp; Publicity Department, and have had the great fortune to be selected as Divisional Spokesman to the General Chamber of Commerce.
+    <t xml:space="preserve">3:49 P.M. \ Clear \ Kazimierz Kawalerielki Alliance, a private open-air loft
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  ...I see you've arrived, Mr. Mob.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Wait. It's you. I saw you back at the arena and you said—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  No. That's neither here nor there. Now, don't be so wound up. Take a seat.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  Allow me to introduce myself again—please, call me Czarny. I'm one of the rotational managers, currently responsible for a division of the Knights Association.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Spokesman Czarny"]  I'm also an executive of the Mieszko Group Major &amp; Publicity Department, and have had the great fortune to be selected as Divisional Spokesman to the General Chamber of Commerce.
 </t>
   </si>
   <si>
@@ -816,7 +816,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  Forego the formality. I’m no critic of your... vernacular, 'Greatmouth Mob.' Or, perhaps, I should be calling you by your real name?
+    <t xml:space="preserve">[name="Spokesman Czarny"]  Forego the formality. I'm no critic of your... vernacular, 'Greatmouth Mob.' Or, perhaps, I should be calling you by your real name?
 </t>
   </si>
   <si>
@@ -824,7 +824,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  Haha, I only jest... Now, why don’t we take a look outside. Glorious view, isn’t it?
+    <t xml:space="preserve">[name="Spokesman Czarny"]  Haha, I only jest... Now, why don't we take a look outside. Glorious view, isn't it?
 </t>
   </si>
   <si>
@@ -832,7 +832,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  Our vast forests, grassland expanses, are a priceless part of Kazimierz, true, but our hardy Kazimierz hands built up great skyscrapers where the forests parted. It’s something we ought to be proud of.
+    <t xml:space="preserve">[name="Spokesman Czarny"]  Our vast forests, grassland expanses, are a priceless part of Kazimierz, true, but our hardy Kazimierz hands built up great skyscrapers where the forests parted. It's something we ought to be proud of.
 </t>
   </si>
   <si>
@@ -844,11 +844,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Course! You’re right on the mark! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  But Kazimierz’s strides are far from over. The road we have to walk is still long.
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Course! You're right on the mark! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Spokesman Czarny"]  But Kazimierz's strides are far from over. The road we have to walk is still long.
 </t>
   </si>
   <si>
@@ -860,11 +860,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Y-You really know your stuff, for sure. I was outta there, like, twenty-plus years ago.  Can I, uh, ask why you’re telling me all this, though?  Truth is, you’re kinda bugging me out here...  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  Your frankness is another part of what draws me to you. I’ve come to make you an offer, Mr. Mob. One that will take us in joint strides. You’ve been poached. 
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Y-You really know your stuff, for sure. I was outta there, like, twenty-plus years ago.  Can I, uh, ask why you're telling me all this, though?  Truth is, you're kinda bugging me out here...  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Spokesman Czarny"]  Your frankness is another part of what draws me to you. I've come to make you an offer, Mr. Mob. One that will take us in joint strides. You've been poached. 
 </t>
   </si>
   <si>
@@ -876,7 +876,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  S-So I’m a Mieszko guy now? 
+    <t xml:space="preserve">[name="Greatmouth Mob"]  S-So I'm a Mieszko guy now? 
 </t>
   </si>
   <si>
@@ -888,7 +888,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  From now on, you’re MY guy, Mr. Anchorman.
+    <t xml:space="preserve">[name="Spokesman Czarny"]  From now on, you're MY guy, Mr. Anchorman.
 </t>
   </si>
   <si>
@@ -896,7 +896,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  ...Let’s stop here for today.
+    <t xml:space="preserve">[name="Zofia"]  ...Let's stop here for today.
 </t>
   </si>
   <si>
@@ -904,7 +904,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  Overdoing it will undo you! You only just finished recovering. We’re all sturdy Kuranta, but no-one torments her body like do! 
+    <t xml:space="preserve">[name="Zofia"]  Overdoing it will undo you! You only just finished recovering. We're all sturdy Kuranta, but no-one torments her body like do! 
 </t>
   </si>
   <si>
@@ -916,7 +916,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  ...Didn’t we already go over this yesterday?
+    <t xml:space="preserve">[name="Zofia"]  ...Didn't we already go over this yesterday?
 </t>
   </si>
   <si>
@@ -932,11 +932,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  So you were up late again! I’ve said before, you need to get your rest! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  Looks like someone’s back in good shape. Them two old cranks can rest easy now.
+    <t xml:space="preserve">[name="Zofia"]  So you were up late again! I've said before, you need to get your rest! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bald Marcin"]  Looks like someone's back in good shape. Them two old cranks can rest easy now.
 </t>
   </si>
   <si>
@@ -952,15 +952,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  Sponsors who came knocking at your door. Thirteen, in all. And there’s some pretty high ranked corps looking for you...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  Whoaahh. Glorious Shield’s the weapons manufacturer, right... so even companies like these are into keeping competition knights?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  Oh, they’re all Knightclub invitations. They put the numbers there to make you gasp. They’re looking to make you a fine puppet, that’s all.
+    <t xml:space="preserve">[name="Bald Marcin"]  Sponsors who came knocking at your door. Thirteen, in all. And there's some pretty high ranked corps looking for you...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  Whoaahh. Glorious Shield's the weapons manufacturer, right... so even companies like these are into keeping competition knights?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  Oh, they're all Knightclub invitations. They put the numbers there to make you gasp. They're looking to make you a fine puppet, that's all.
 </t>
   </si>
   <si>
@@ -968,15 +968,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  Maria! You wouldn’t let these capitalists lead you by the nose, would you?! Remember your sister here can outbid these and then some, anyway!  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  Wait... I’m not falling for anything! Just, auntie, you spending money on me like that makes me feel kind of bad...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  Money, my high-heeled foot. If I want to spend it, I’ll spend it. I didn’t buy this land by agonizing about it, I’ll have you know.
+    <t xml:space="preserve">[name="Zofia"]  Maria! You wouldn't let these capitalists lead you by the nose, would you?! Remember your sister here can outbid these and then some, anyway!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  Wait... I'm not falling for anything! Just, auntie, you spending money on me like that makes me feel kind of bad...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  Money, my high-heeled foot. If I want to spend it, I'll spend it. I didn't buy this land by agonizing about it, I'll have you know.
 </t>
   </si>
   <si>
@@ -988,7 +988,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  That said, I’m only here to hand these papers over. Saves Młynar the hassle. Rest of it’s up to you two alone. Think it over and if you’re okay, come relax over at the bar sometime. 
+    <t xml:space="preserve">[name="Bald Marcin"]  That said, I'm only here to hand these papers over. Saves Młynar the hassle. Rest of it's up to you two alone. Think it over and if you're okay, come relax over at the bar sometime. 
 </t>
   </si>
   <si>
@@ -996,19 +996,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  I’ve said before, but I don’t want our family crest to become a corporate logo... and I know I can’t stand toe-to-toe with the rest of them, either. Not as I am right now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  ...You’re going to press on?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  Mm-hm. This isn’t just about the money. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  When I think of 'Nearl,' the name my grandpa and my parents protected all their lives, I can’t imagine it was all just for the numbers and lines of the stock exchange.
+    <t xml:space="preserve">[name="Maria"]  I've said before, but I don't want our family crest to become a corporate logo... and I know I can't stand toe-to-toe with the rest of them, either. Not as I am right now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  ...You're going to press on?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  Mm-hm. This isn't just about the money. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  When I think of 'Nearl,' the name my grandpa and my parents protected all their lives, I can't imagine it was all just for the numbers and lines of the stock exchange.
 </t>
   </si>
   <si>
@@ -1016,11 +1016,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  Maria... Alright, it sounds like I’ll be throwing all of these away, then.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  If we’re going to make the cut for the Major, we need to get a lot more points, fast—that’s the biggest hurdle we face, as independent knights without a Knightclub to hide in.
+    <t xml:space="preserve">[name="Zofia"]  Maria... Alright, it sounds like I'll be throwing all of these away, then.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  If we're going to make the cut for the Major, we need to get a lot more points, fast—that's the biggest hurdle we face, as independent knights without a Knightclub to hide in.
 </t>
   </si>
   <si>
@@ -1028,15 +1028,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  Meanwhile, you had the Knightclubs all wrangling the rules for point transfers, arranging it so their trump cards didn’t even need to fight the preselections...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  So I’ll have to get past all of those Knightclub teams, soon enough...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  That’s right. That’s why we’re going to have to take some special measures... if we’re not wasting a single qualifier, we only have so many options.
+    <t xml:space="preserve">[name="Zofia"]  Meanwhile, you had the Knightclubs all wrangling the rules for point transfers, arranging it so their trump cards didn't even need to fight the preselections...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  So I'll have to get past all of those Knightclub teams, soon enough...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  That's right. That's why we're going to have to take some special measures... if we're not wasting a single qualifier, we only have so many options.
 </t>
   </si>
   <si>
@@ -1052,11 +1052,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Today’s match is a one-and-done! We’ll see plundering! Crazy battles! Tight escapes and desperate chases! Welcome to the third largest arena in Kazimierz, manmade to unleash the deathmatch within every knight!  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  What’s that? You say one match only earns you one point!? Where does THAT happen!?  
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Today's match is a one-and-done! We'll see plundering! Crazy battles! Tight escapes and desperate chases! Welcome to the third largest arena in Kazimierz, manmade to unleash the deathmatch within every knight!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  What's that? You say one match only earns you one point!? Where does THAT happen!?  
 </t>
   </si>
   <si>
@@ -1068,23 +1068,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  You wanna watch the heroes fall! You wanna watch the great stars crash to the ground! Thaaaat’s right! This season’s melee matches have a new rule in the mix, the 'Points Off' clause! You hear that, knights? Risk and reward in one!   
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Where’s the spice when your points never drop?! In this match, we’re following the 'Predator System!' Let’s keep it simple, sister: when someone goes up one, someone else is goin’ down one!  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Oh, yeah! Believe it, I’m scrapping to see what the do-it-alls do! Our rising stars, swallowed up! It’s unprecedented, folks! A match to flip the rankings head to toe! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Thought you could qualify for the Major by wining it up in a bubble bath?! You’d better risk it all right here, right now! Get ready to rumble, because the world’s watching!  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Don’t forget, our sponsored drones from Raythean Industries will be broadcasting every knight’s viewpoint non-stop! Our eight registered Knights Association referees won’t miss a single detail! 
+    <t xml:space="preserve">[name="Greatmouth Mob"]  You wanna watch the heroes fall! You wanna watch the great stars crash to the ground! Thaaaat's right! This season's melee matches have a new rule in the mix, the 'Points Off' clause! You hear that, knights? Risk and reward in one!   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Where's the spice when your points never drop?! In this match, we're following the 'Predator System!' Let's keep it simple, sister: when someone goes up one, someone else is goin' down one!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Oh, yeah! Believe it, I'm scrapping to see what the do-it-alls do! Our rising stars, swallowed up! It's unprecedented, folks! A match to flip the rankings head to toe! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Thought you could qualify for the Major by wining it up in a bubble bath?! You'd better risk it all right here, right now! Get ready to rumble, because the world's watching!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Don't forget, our sponsored drones from Raythean Industries will be broadcasting every knight's viewpoint non-stop! Our eight registered Knights Association referees won't miss a single detail! 
 </t>
   </si>
   <si>
@@ -1096,7 +1096,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  What the hell? This guy again? Isn’t he supposed to keep to Roar Guards territory? 
+    <t xml:space="preserve">[name="Old Craftsman"]  What the hell? This guy again? Isn't he supposed to keep to Roar Guards territory? 
 </t>
   </si>
   <si>
@@ -1112,7 +1112,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  Didn’t bet on the Association being all this capricious, did we... and it doesn’t bode well.
+    <t xml:space="preserve">[name="Bald Marcin"]  Didn't bet on the Association being all this capricious, did we... and it doesn't bode well.
 </t>
   </si>
   <si>
@@ -1124,7 +1124,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Even if your points for this season take a sub-zero dive, you’ll still be in the game! Wanna see backs against walls? Last-gasp attacks? You’re in the right place, folks!
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Even if your points for this season take a sub-zero dive, you'll still be in the game! Wanna see backs against walls? Last-gasp attacks? You're in the right place, folks!
 </t>
   </si>
   <si>
@@ -1132,7 +1132,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  —Who’re you?
+    <t xml:space="preserve">[name="Maria"]  —Who're you?
 </t>
   </si>
   <si>
@@ -1144,7 +1144,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Passing Fan"]  Let’s make it quick. The moment the Brassrust Knight healed up, Ashley—my Ashley—sent him straight back to the hospital. Man, the Ingras have been down on their luck for weeks now.
+    <t xml:space="preserve">[name="Passing Fan"]  Let's make it quick. The moment the Brassrust Knight healed up, Ashley—my Ashley—sent him straight back to the hospital. Man, the Ingras have been down on their luck for weeks now.
 </t>
   </si>
   <si>
@@ -1152,11 +1152,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Passing Fan"]  Now, Ashley took me right to the playoffs, so I’ve been a little panicked. Thought I’d try and make up a few points here. But I didn’t think I’d find you too, young Nearl. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Passing Fan"]  —Why don’t we go for a little tête-à-tête?
+    <t xml:space="preserve">[name="Passing Fan"]  Now, Ashley took me right to the playoffs, so I've been a little panicked. Thought I'd try and make up a few points here. But I didn't think I'd find you too, young Nearl. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Passing Fan"]  —Why don't we go for a little tête-à-tête?
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_04_beg.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_04_beg.xlsx
@@ -1300,7 +1300,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="마리아"]  어젯밤에 라이타니아 기사 거 전투 영상을 봤거든? 참고할 만한 점이 있는 것 같아……
+    <t xml:space="preserve">[name="마리아"]  어젯밤에 라이타니엔 기사의 전투 영상을 봤거든? 참고할 만한 점이 있는 것 같아……
 </t>
   </si>
   <si>
